--- a/analysis/experiments/architecture_search.xlsx
+++ b/analysis/experiments/architecture_search.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.96408644523626996</v>
+        <v>0.97421800772922695</v>
       </c>
       <c r="C5">
-        <v>0.97374857099432699</v>
+        <v>0.97601221109691405</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
         <v>0</v>
